--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>#556B2F</t>
-  </si>
-  <si>
-    <t>marker_template_ex_1</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -65,24 +59,6 @@
     <t>[7,2,2,2]</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>Dot</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>Dash-Dot</t>
-  </si>
-  <si>
-    <t>marker_template_ex_2</t>
-  </si>
-  <si>
-    <t>marker_template_ex_3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -95,22 +71,28 @@
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>#f44242</t>
+  </si>
+  <si>
+    <t>#f4a641</t>
+  </si>
+  <si>
+    <t>#4143f4</t>
+  </si>
+  <si>
+    <t>#00b515</t>
+  </si>
+  <si>
+    <t>#960084</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>marker_lineWidth</t>
   </si>
 </sst>
 </file>
@@ -441,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,267 +436,132 @@
     <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -47,18 +47,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[2,2]</t>
-  </si>
-  <si>
-    <t>[7,2]</t>
-  </si>
-  <si>
-    <t>[7,2,2,2]</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -89,10 +77,22 @@
     <t>#960084</t>
   </si>
   <si>
-    <t>sin</t>
-  </si>
-  <si>
     <t>marker_lineWidth</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":"[0]"</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":"[2,2]"}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":"[7,2]"}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":"[7,2,2,2]"}</t>
+  </si>
+  <si>
+    <t>{"shape":"sin","dashArray":"[0]"}</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -509,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -549,16 +549,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -80,9 +80,6 @@
     <t>marker_lineWidth</t>
   </si>
   <si>
-    <t>{"shape":"line","dashArray":"[0]"</t>
-  </si>
-  <si>
     <t>{"shape":"line","dashArray":"[2,2]"}</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>{"shape":"sin","dashArray":"[0]"}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":"[0]"}</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>{"shape":"line","dashArray":"[0]"}</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>#f49542</t>
+  </si>
+  <si>
+    <t>{"shape":"fault","dashArray":"[5,5]"}</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +573,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -80,28 +80,28 @@
     <t>marker_lineWidth</t>
   </si>
   <si>
-    <t>{"shape":"line","dashArray":"[2,2]"}</t>
-  </si>
-  <si>
-    <t>{"shape":"line","dashArray":"[7,2]"}</t>
-  </si>
-  <si>
-    <t>{"shape":"line","dashArray":"[7,2,2,2]"}</t>
-  </si>
-  <si>
-    <t>{"shape":"sin","dashArray":"[0]"}</t>
-  </si>
-  <si>
-    <t>{"shape":"line","dashArray":"[0]"}</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>#f49542</t>
   </si>
   <si>
-    <t>{"shape":"fault","dashArray":"[5,5]"}</t>
+    <t>{"shape":"line","dashArray":[0]}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":[2,2]}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":[7,2]}</t>
+  </si>
+  <si>
+    <t>{"shape":"line","dashArray":[7,2,2,2]}</t>
+  </si>
+  <si>
+    <t>{"shape":"sin","dashArray":[0]}</t>
+  </si>
+  <si>
+    <t>{"shape":"fault","dashArray":[5,5]}</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="marker_template" sheetId="1" r:id="rId1"/>
+    <sheet name="marker_set_template" sheetId="2" r:id="rId1"/>
+    <sheet name="marker_template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +33,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>marker_template</t>
-  </si>
-  <si>
     <t>marker_name</t>
   </si>
   <si>
@@ -102,6 +100,12 @@
   </si>
   <si>
     <t>{"shape":"fault","dashArray":[5,5]}</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id_marker_template</t>
   </si>
 </sst>
 </file>
@@ -432,10 +436,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,39 +489,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -497,17 +532,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -517,17 +552,17 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="1">
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -537,17 +572,17 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -557,17 +592,17 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -577,17 +612,17 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" s="1">
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>

--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="marker_set_template" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>id_marker_template</t>
+  </si>
+  <si>
+    <t>order_num</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +484,11 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,11 +507,14 @@
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -526,9 +533,12 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,8 +557,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -567,8 +580,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -587,8 +603,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -607,8 +626,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -626,6 +648,9 @@
       </c>
       <c r="F7" s="1">
         <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
